--- a/仕様書/モルモットホイーラン_仕様書_エフェクト.xlsx
+++ b/仕様書/モルモットホイーラン_仕様書_エフェクト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松田 優志\日本ゲーム大賞 アマチュア部門\JGA_2020_PROJECT\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2021年度\日本ゲーム大賞アマチュア部門\JGA_2021_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC736F-7A72-44DE-8F82-5DA4C2312F22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1166B3E9-AE68-4F0E-B243-52B2A1885110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -224,6 +224,102 @@
   </si>
   <si>
     <t>ゲームタイトル名を「モルモットホイーラン」に変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「当たり判定」の項目を作成</t>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト：スタート時の演出(クラッカー)</t>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「スタート時の演出(クラッカー)」の項目を作成</t>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト：当たり判定</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スタート開始から5秒間、プレイヤーの周りにクラッカーの演出が行われる。
+・パーティクルシステムで表現</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーが壁にヒットした際、演出が発生する
+・黄色とオレンジの粒子を放出
+・パーティクルシステムで表現</t>
+    <rPh sb="7" eb="8">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>リュウシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホウシュツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -957,6 +1053,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>150496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96755435-4ADE-4680-891D-358796DEB6C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14576" t="22103" r="5735" b="21877"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1684020" y="6377940"/>
+          <a:ext cx="5082540" cy="2009776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -1044,7 +1189,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1059,6 +1204,55 @@
         <a:xfrm>
           <a:off x="4495800" y="20748176"/>
           <a:ext cx="1474470" cy="1041213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C163241C-3968-4153-93CD-0275483E2DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="33725" t="24748" r="32157" b="26624"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2263140" y="9928861"/>
+          <a:ext cx="2651760" cy="2125980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,27 +1567,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="2" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:73" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="2" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:73" s="2" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:73" s="4" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:73" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:73" s="2" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:73" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="6" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:73" s="6" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1598,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1480,7 +1674,7 @@
       <c r="BT7" s="23"/>
       <c r="BU7" s="23"/>
     </row>
-    <row r="8" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1556,7 +1750,7 @@
       <c r="BT8" s="23"/>
       <c r="BU8" s="23"/>
     </row>
-    <row r="9" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1630,7 +1824,7 @@
       <c r="BT9" s="23"/>
       <c r="BU9" s="23"/>
     </row>
-    <row r="10" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1712,7 +1906,7 @@
       <c r="BT10" s="22"/>
       <c r="BU10" s="22"/>
     </row>
-    <row r="11" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1786,7 +1980,7 @@
       <c r="BT11" s="22"/>
       <c r="BU11" s="22"/>
     </row>
-    <row r="12" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1860,7 +2054,7 @@
       <c r="BT12" s="22"/>
       <c r="BU12" s="22"/>
     </row>
-    <row r="13" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -1942,7 +2136,7 @@
       <c r="BT13" s="27"/>
       <c r="BU13" s="27"/>
     </row>
-    <row r="14" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -2024,7 +2218,7 @@
       <c r="BT14" s="28"/>
       <c r="BU14" s="28"/>
     </row>
-    <row r="15" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2106,7 +2300,7 @@
       <c r="BT15" s="28"/>
       <c r="BU15" s="28"/>
     </row>
-    <row r="16" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -2188,7 +2382,7 @@
       <c r="BT16" s="28"/>
       <c r="BU16" s="28"/>
     </row>
-    <row r="17" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -2196,7 +2390,9 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="32">
+        <v>44345</v>
+      </c>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
@@ -2207,7 +2403,9 @@
       <c r="Q17" s="33"/>
       <c r="R17" s="33"/>
       <c r="S17" s="34"/>
-      <c r="T17" s="28"/>
+      <c r="T17" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
@@ -2215,7 +2413,9 @@
       <c r="Y17" s="28"/>
       <c r="Z17" s="28"/>
       <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
+      <c r="AB17" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
       <c r="AE17" s="28"/>
@@ -2230,7 +2430,9 @@
       <c r="AN17" s="28"/>
       <c r="AO17" s="28"/>
       <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
+      <c r="AQ17" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="AR17" s="28"/>
       <c r="AS17" s="28"/>
       <c r="AT17" s="28"/>
@@ -2262,7 +2464,7 @@
       <c r="BT17" s="28"/>
       <c r="BU17" s="28"/>
     </row>
-    <row r="18" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -2270,7 +2472,9 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
-      <c r="I18" s="35"/>
+      <c r="I18" s="32">
+        <v>44345</v>
+      </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
@@ -2281,7 +2485,9 @@
       <c r="Q18" s="33"/>
       <c r="R18" s="33"/>
       <c r="S18" s="34"/>
-      <c r="T18" s="28"/>
+      <c r="T18" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
       <c r="W18" s="28"/>
@@ -2289,7 +2495,9 @@
       <c r="Y18" s="28"/>
       <c r="Z18" s="28"/>
       <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
+      <c r="AB18" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="28"/>
@@ -2304,7 +2512,9 @@
       <c r="AN18" s="28"/>
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
+      <c r="AQ18" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="AR18" s="28"/>
       <c r="AS18" s="28"/>
       <c r="AT18" s="28"/>
@@ -2336,7 +2546,7 @@
       <c r="BT18" s="28"/>
       <c r="BU18" s="28"/>
     </row>
-    <row r="19" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -2410,7 +2620,7 @@
       <c r="BT19" s="28"/>
       <c r="BU19" s="28"/>
     </row>
-    <row r="20" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -2484,7 +2694,7 @@
       <c r="BT20" s="28"/>
       <c r="BU20" s="28"/>
     </row>
-    <row r="21" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -2558,7 +2768,7 @@
       <c r="BT21" s="28"/>
       <c r="BU21" s="28"/>
     </row>
-    <row r="22" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2632,7 +2842,7 @@
       <c r="BT22" s="28"/>
       <c r="BU22" s="28"/>
     </row>
-    <row r="23" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -2706,7 +2916,7 @@
       <c r="BT23" s="28"/>
       <c r="BU23" s="28"/>
     </row>
-    <row r="24" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2780,7 +2990,7 @@
       <c r="BT24" s="28"/>
       <c r="BU24" s="28"/>
     </row>
-    <row r="25" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -2854,7 +3064,7 @@
       <c r="BT25" s="28"/>
       <c r="BU25" s="28"/>
     </row>
-    <row r="26" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -2928,7 +3138,7 @@
       <c r="BT26" s="28"/>
       <c r="BU26" s="28"/>
     </row>
-    <row r="27" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -3002,7 +3212,7 @@
       <c r="BT27" s="28"/>
       <c r="BU27" s="28"/>
     </row>
-    <row r="28" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -3076,7 +3286,7 @@
       <c r="BT28" s="28"/>
       <c r="BU28" s="28"/>
     </row>
-    <row r="29" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -3150,7 +3360,7 @@
       <c r="BT29" s="28"/>
       <c r="BU29" s="28"/>
     </row>
-    <row r="30" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3224,7 +3434,7 @@
       <c r="BT30" s="28"/>
       <c r="BU30" s="28"/>
     </row>
-    <row r="31" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -3298,7 +3508,7 @@
       <c r="BT31" s="28"/>
       <c r="BU31" s="28"/>
     </row>
-    <row r="32" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3307,7 +3517,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -3316,7 +3526,7 @@
       <c r="F33" s="20"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3325,7 +3535,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -3334,7 +3544,7 @@
       <c r="F35" s="20"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3343,7 +3553,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -3352,7 +3562,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -3361,7 +3571,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -3370,7 +3580,7 @@
       <c r="F39" s="20"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -3379,7 +3589,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -3388,7 +3598,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -3397,7 +3607,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -3406,7 +3616,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -3415,7 +3625,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -3424,7 +3634,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3433,7 +3643,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -3442,7 +3652,7 @@
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
     </row>
-    <row r="48" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -3451,7 +3661,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -3460,7 +3670,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -3469,7 +3679,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -3605,27 +3815,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="2" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="2" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:82" s="2" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:82" s="4" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="6" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:82" s="6" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -3636,7 +3846,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3721,7 +3931,7 @@
       <c r="CC7" s="50"/>
       <c r="CD7" s="51"/>
     </row>
-    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -3806,7 +4016,7 @@
       <c r="CC8" s="53"/>
       <c r="CD8" s="54"/>
     </row>
-    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3889,7 +4099,7 @@
       <c r="CC9" s="56"/>
       <c r="CD9" s="57"/>
     </row>
-    <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3898,7 +4108,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -3983,7 +4193,7 @@
       <c r="CC11" s="37"/>
       <c r="CD11" s="38"/>
     </row>
-    <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -4066,7 +4276,7 @@
       <c r="CC12" s="40"/>
       <c r="CD12" s="41"/>
     </row>
-    <row r="13" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -4149,7 +4359,7 @@
       <c r="CC13" s="40"/>
       <c r="CD13" s="41"/>
     </row>
-    <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -4236,7 +4446,7 @@
       <c r="CC14" s="43"/>
       <c r="CD14" s="47"/>
     </row>
-    <row r="15" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -4319,7 +4529,7 @@
       <c r="CC15" s="43"/>
       <c r="CD15" s="47"/>
     </row>
-    <row r="16" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -4402,7 +4612,7 @@
       <c r="CC16" s="43"/>
       <c r="CD16" s="47"/>
     </row>
-    <row r="17" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -4485,7 +4695,7 @@
       <c r="CC17" s="43"/>
       <c r="CD17" s="47"/>
     </row>
-    <row r="18" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4568,7 +4778,7 @@
       <c r="CC18" s="43"/>
       <c r="CD18" s="47"/>
     </row>
-    <row r="19" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -4651,7 +4861,7 @@
       <c r="CC19" s="43"/>
       <c r="CD19" s="47"/>
     </row>
-    <row r="20" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4734,7 +4944,7 @@
       <c r="CC20" s="43"/>
       <c r="CD20" s="47"/>
     </row>
-    <row r="21" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -4817,7 +5027,7 @@
       <c r="CC21" s="43"/>
       <c r="CD21" s="47"/>
     </row>
-    <row r="22" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -4900,7 +5110,7 @@
       <c r="CC22" s="43"/>
       <c r="CD22" s="47"/>
     </row>
-    <row r="23" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -4983,7 +5193,7 @@
       <c r="CC23" s="43"/>
       <c r="CD23" s="47"/>
     </row>
-    <row r="24" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -5066,7 +5276,7 @@
       <c r="CC24" s="43"/>
       <c r="CD24" s="47"/>
     </row>
-    <row r="25" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -5149,7 +5359,7 @@
       <c r="CC25" s="43"/>
       <c r="CD25" s="47"/>
     </row>
-    <row r="26" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -5232,7 +5442,7 @@
       <c r="CC26" s="43"/>
       <c r="CD26" s="47"/>
     </row>
-    <row r="27" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -5315,7 +5525,7 @@
       <c r="CC27" s="43"/>
       <c r="CD27" s="47"/>
     </row>
-    <row r="28" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5398,7 +5608,7 @@
       <c r="CC28" s="45"/>
       <c r="CD28" s="48"/>
     </row>
-    <row r="29" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -5407,7 +5617,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -5416,7 +5626,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -5425,7 +5635,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -5434,7 +5644,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
       <c r="I32" s="36" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -5510,7 +5720,7 @@
       <c r="CC32" s="37"/>
       <c r="CD32" s="38"/>
     </row>
-    <row r="33" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -5593,7 +5803,7 @@
       <c r="CC33" s="40"/>
       <c r="CD33" s="41"/>
     </row>
-    <row r="34" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -5676,7 +5886,7 @@
       <c r="CC34" s="40"/>
       <c r="CD34" s="41"/>
     </row>
-    <row r="35" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -5725,7 +5935,7 @@
       <c r="AS35" s="43"/>
       <c r="AT35" s="43"/>
       <c r="AU35" s="46" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AV35" s="43"/>
       <c r="AW35" s="43"/>
@@ -5763,7 +5973,7 @@
       <c r="CC35" s="43"/>
       <c r="CD35" s="47"/>
     </row>
-    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -5846,7 +6056,7 @@
       <c r="CC36" s="43"/>
       <c r="CD36" s="47"/>
     </row>
-    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -5929,7 +6139,7 @@
       <c r="CC37" s="43"/>
       <c r="CD37" s="47"/>
     </row>
-    <row r="38" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -6012,7 +6222,7 @@
       <c r="CC38" s="43"/>
       <c r="CD38" s="47"/>
     </row>
-    <row r="39" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -6095,7 +6305,7 @@
       <c r="CC39" s="43"/>
       <c r="CD39" s="47"/>
     </row>
-    <row r="40" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -6178,7 +6388,7 @@
       <c r="CC40" s="43"/>
       <c r="CD40" s="47"/>
     </row>
-    <row r="41" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -6261,7 +6471,7 @@
       <c r="CC41" s="43"/>
       <c r="CD41" s="47"/>
     </row>
-    <row r="42" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -6344,7 +6554,7 @@
       <c r="CC42" s="43"/>
       <c r="CD42" s="47"/>
     </row>
-    <row r="43" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -6427,7 +6637,7 @@
       <c r="CC43" s="43"/>
       <c r="CD43" s="47"/>
     </row>
-    <row r="44" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -6510,7 +6720,7 @@
       <c r="CC44" s="43"/>
       <c r="CD44" s="47"/>
     </row>
-    <row r="45" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -6593,7 +6803,7 @@
       <c r="CC45" s="43"/>
       <c r="CD45" s="47"/>
     </row>
-    <row r="46" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -6676,7 +6886,7 @@
       <c r="CC46" s="43"/>
       <c r="CD46" s="47"/>
     </row>
-    <row r="47" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -6759,7 +6969,7 @@
       <c r="CC47" s="43"/>
       <c r="CD47" s="47"/>
     </row>
-    <row r="48" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -6842,7 +7052,7 @@
       <c r="CC48" s="43"/>
       <c r="CD48" s="47"/>
     </row>
-    <row r="49" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -6925,7 +7135,7 @@
       <c r="CC49" s="45"/>
       <c r="CD49" s="48"/>
     </row>
-    <row r="50" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -6934,7 +7144,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -6943,10 +7153,10 @@
       <c r="F51" s="20"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="53" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="53" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I53" s="36" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
@@ -7022,7 +7232,7 @@
       <c r="CC53" s="37"/>
       <c r="CD53" s="38"/>
     </row>
-    <row r="54" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I54" s="39"/>
       <c r="J54" s="40"/>
       <c r="K54" s="40"/>
@@ -7098,7 +7308,7 @@
       <c r="CC54" s="40"/>
       <c r="CD54" s="41"/>
     </row>
-    <row r="55" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I55" s="39"/>
       <c r="J55" s="40"/>
       <c r="K55" s="40"/>
@@ -7174,7 +7384,7 @@
       <c r="CC55" s="40"/>
       <c r="CD55" s="41"/>
     </row>
-    <row r="56" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I56" s="42" t="s">
         <v>13</v>
       </c>
@@ -7216,7 +7426,7 @@
       <c r="AS56" s="43"/>
       <c r="AT56" s="43"/>
       <c r="AU56" s="46" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AV56" s="43"/>
       <c r="AW56" s="43"/>
@@ -7254,7 +7464,7 @@
       <c r="CC56" s="43"/>
       <c r="CD56" s="47"/>
     </row>
-    <row r="57" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I57" s="42"/>
       <c r="J57" s="43"/>
       <c r="K57" s="43"/>
@@ -7330,7 +7540,7 @@
       <c r="CC57" s="43"/>
       <c r="CD57" s="47"/>
     </row>
-    <row r="58" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I58" s="42"/>
       <c r="J58" s="43"/>
       <c r="K58" s="43"/>
@@ -7406,7 +7616,7 @@
       <c r="CC58" s="43"/>
       <c r="CD58" s="47"/>
     </row>
-    <row r="59" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I59" s="42"/>
       <c r="J59" s="43"/>
       <c r="K59" s="43"/>
@@ -7482,7 +7692,7 @@
       <c r="CC59" s="43"/>
       <c r="CD59" s="47"/>
     </row>
-    <row r="60" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I60" s="42"/>
       <c r="J60" s="43"/>
       <c r="K60" s="43"/>
@@ -7558,7 +7768,7 @@
       <c r="CC60" s="43"/>
       <c r="CD60" s="47"/>
     </row>
-    <row r="61" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I61" s="42"/>
       <c r="J61" s="43"/>
       <c r="K61" s="43"/>
@@ -7634,7 +7844,7 @@
       <c r="CC61" s="43"/>
       <c r="CD61" s="47"/>
     </row>
-    <row r="62" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I62" s="42"/>
       <c r="J62" s="43"/>
       <c r="K62" s="43"/>
@@ -7710,7 +7920,7 @@
       <c r="CC62" s="43"/>
       <c r="CD62" s="47"/>
     </row>
-    <row r="63" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I63" s="42"/>
       <c r="J63" s="43"/>
       <c r="K63" s="43"/>
@@ -7786,7 +7996,7 @@
       <c r="CC63" s="43"/>
       <c r="CD63" s="47"/>
     </row>
-    <row r="64" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I64" s="42"/>
       <c r="J64" s="43"/>
       <c r="K64" s="43"/>
@@ -7862,7 +8072,7 @@
       <c r="CC64" s="43"/>
       <c r="CD64" s="47"/>
     </row>
-    <row r="65" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I65" s="42"/>
       <c r="J65" s="43"/>
       <c r="K65" s="43"/>
@@ -7938,7 +8148,7 @@
       <c r="CC65" s="43"/>
       <c r="CD65" s="47"/>
     </row>
-    <row r="66" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I66" s="42"/>
       <c r="J66" s="43"/>
       <c r="K66" s="43"/>
@@ -8014,7 +8224,7 @@
       <c r="CC66" s="43"/>
       <c r="CD66" s="47"/>
     </row>
-    <row r="67" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I67" s="42"/>
       <c r="J67" s="43"/>
       <c r="K67" s="43"/>
@@ -8090,7 +8300,7 @@
       <c r="CC67" s="43"/>
       <c r="CD67" s="47"/>
     </row>
-    <row r="68" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I68" s="42"/>
       <c r="J68" s="43"/>
       <c r="K68" s="43"/>
@@ -8166,7 +8376,7 @@
       <c r="CC68" s="43"/>
       <c r="CD68" s="47"/>
     </row>
-    <row r="69" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I69" s="42"/>
       <c r="J69" s="43"/>
       <c r="K69" s="43"/>
@@ -8242,7 +8452,7 @@
       <c r="CC69" s="43"/>
       <c r="CD69" s="47"/>
     </row>
-    <row r="70" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I70" s="44"/>
       <c r="J70" s="45"/>
       <c r="K70" s="45"/>
@@ -8318,8 +8528,8 @@
       <c r="CC70" s="45"/>
       <c r="CD70" s="48"/>
     </row>
-    <row r="73" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="74" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="74" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I74" s="36" t="s">
         <v>16</v>
       </c>
@@ -8397,7 +8607,7 @@
       <c r="CC74" s="37"/>
       <c r="CD74" s="38"/>
     </row>
-    <row r="75" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I75" s="39"/>
       <c r="J75" s="40"/>
       <c r="K75" s="40"/>
@@ -8473,7 +8683,7 @@
       <c r="CC75" s="40"/>
       <c r="CD75" s="41"/>
     </row>
-    <row r="76" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I76" s="39"/>
       <c r="J76" s="40"/>
       <c r="K76" s="40"/>
@@ -8549,7 +8759,7 @@
       <c r="CC76" s="40"/>
       <c r="CD76" s="41"/>
     </row>
-    <row r="77" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I77" s="42" t="s">
         <v>13</v>
       </c>
@@ -8629,7 +8839,7 @@
       <c r="CC77" s="43"/>
       <c r="CD77" s="47"/>
     </row>
-    <row r="78" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I78" s="42"/>
       <c r="J78" s="43"/>
       <c r="K78" s="43"/>
@@ -8705,7 +8915,7 @@
       <c r="CC78" s="43"/>
       <c r="CD78" s="47"/>
     </row>
-    <row r="79" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I79" s="42"/>
       <c r="J79" s="43"/>
       <c r="K79" s="43"/>
@@ -8781,7 +8991,7 @@
       <c r="CC79" s="43"/>
       <c r="CD79" s="47"/>
     </row>
-    <row r="80" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I80" s="42"/>
       <c r="J80" s="43"/>
       <c r="K80" s="43"/>
@@ -8857,7 +9067,7 @@
       <c r="CC80" s="43"/>
       <c r="CD80" s="47"/>
     </row>
-    <row r="81" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I81" s="42"/>
       <c r="J81" s="43"/>
       <c r="K81" s="43"/>
@@ -8933,7 +9143,7 @@
       <c r="CC81" s="43"/>
       <c r="CD81" s="47"/>
     </row>
-    <row r="82" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I82" s="42"/>
       <c r="J82" s="43"/>
       <c r="K82" s="43"/>
@@ -9009,7 +9219,7 @@
       <c r="CC82" s="43"/>
       <c r="CD82" s="47"/>
     </row>
-    <row r="83" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I83" s="42"/>
       <c r="J83" s="43"/>
       <c r="K83" s="43"/>
@@ -9085,7 +9295,7 @@
       <c r="CC83" s="43"/>
       <c r="CD83" s="47"/>
     </row>
-    <row r="84" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I84" s="42"/>
       <c r="J84" s="43"/>
       <c r="K84" s="43"/>
@@ -9161,7 +9371,7 @@
       <c r="CC84" s="43"/>
       <c r="CD84" s="47"/>
     </row>
-    <row r="85" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I85" s="42"/>
       <c r="J85" s="43"/>
       <c r="K85" s="43"/>
@@ -9237,7 +9447,7 @@
       <c r="CC85" s="43"/>
       <c r="CD85" s="47"/>
     </row>
-    <row r="86" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I86" s="42"/>
       <c r="J86" s="43"/>
       <c r="K86" s="43"/>
@@ -9313,7 +9523,7 @@
       <c r="CC86" s="43"/>
       <c r="CD86" s="47"/>
     </row>
-    <row r="87" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I87" s="42"/>
       <c r="J87" s="43"/>
       <c r="K87" s="43"/>
@@ -9389,7 +9599,7 @@
       <c r="CC87" s="43"/>
       <c r="CD87" s="47"/>
     </row>
-    <row r="88" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I88" s="42"/>
       <c r="J88" s="43"/>
       <c r="K88" s="43"/>
@@ -9465,7 +9675,7 @@
       <c r="CC88" s="43"/>
       <c r="CD88" s="47"/>
     </row>
-    <row r="89" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I89" s="42"/>
       <c r="J89" s="43"/>
       <c r="K89" s="43"/>
@@ -9541,7 +9751,7 @@
       <c r="CC89" s="43"/>
       <c r="CD89" s="47"/>
     </row>
-    <row r="90" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I90" s="42"/>
       <c r="J90" s="43"/>
       <c r="K90" s="43"/>
@@ -9617,7 +9827,7 @@
       <c r="CC90" s="43"/>
       <c r="CD90" s="47"/>
     </row>
-    <row r="91" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I91" s="44"/>
       <c r="J91" s="45"/>
       <c r="K91" s="45"/>
@@ -9693,8 +9903,8 @@
       <c r="CC91" s="45"/>
       <c r="CD91" s="48"/>
     </row>
-    <row r="94" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="95" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="95" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I95" s="36" t="s">
         <v>16</v>
       </c>
@@ -9772,7 +9982,7 @@
       <c r="CC95" s="37"/>
       <c r="CD95" s="38"/>
     </row>
-    <row r="96" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I96" s="39"/>
       <c r="J96" s="40"/>
       <c r="K96" s="40"/>
@@ -9848,7 +10058,7 @@
       <c r="CC96" s="40"/>
       <c r="CD96" s="41"/>
     </row>
-    <row r="97" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I97" s="39"/>
       <c r="J97" s="40"/>
       <c r="K97" s="40"/>
@@ -9924,7 +10134,7 @@
       <c r="CC97" s="40"/>
       <c r="CD97" s="41"/>
     </row>
-    <row r="98" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I98" s="42" t="s">
         <v>13</v>
       </c>
@@ -10004,7 +10214,7 @@
       <c r="CC98" s="43"/>
       <c r="CD98" s="47"/>
     </row>
-    <row r="99" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I99" s="42"/>
       <c r="J99" s="43"/>
       <c r="K99" s="43"/>
@@ -10080,7 +10290,7 @@
       <c r="CC99" s="43"/>
       <c r="CD99" s="47"/>
     </row>
-    <row r="100" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I100" s="42"/>
       <c r="J100" s="43"/>
       <c r="K100" s="43"/>
@@ -10156,7 +10366,7 @@
       <c r="CC100" s="43"/>
       <c r="CD100" s="47"/>
     </row>
-    <row r="101" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I101" s="42"/>
       <c r="J101" s="43"/>
       <c r="K101" s="43"/>
@@ -10232,7 +10442,7 @@
       <c r="CC101" s="43"/>
       <c r="CD101" s="47"/>
     </row>
-    <row r="102" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I102" s="42"/>
       <c r="J102" s="43"/>
       <c r="K102" s="43"/>
@@ -10308,7 +10518,7 @@
       <c r="CC102" s="43"/>
       <c r="CD102" s="47"/>
     </row>
-    <row r="103" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I103" s="42"/>
       <c r="J103" s="43"/>
       <c r="K103" s="43"/>
@@ -10384,7 +10594,7 @@
       <c r="CC103" s="43"/>
       <c r="CD103" s="47"/>
     </row>
-    <row r="104" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I104" s="42"/>
       <c r="J104" s="43"/>
       <c r="K104" s="43"/>
@@ -10460,7 +10670,7 @@
       <c r="CC104" s="43"/>
       <c r="CD104" s="47"/>
     </row>
-    <row r="105" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I105" s="42"/>
       <c r="J105" s="43"/>
       <c r="K105" s="43"/>
@@ -10536,7 +10746,7 @@
       <c r="CC105" s="43"/>
       <c r="CD105" s="47"/>
     </row>
-    <row r="106" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I106" s="42"/>
       <c r="J106" s="43"/>
       <c r="K106" s="43"/>
@@ -10612,7 +10822,7 @@
       <c r="CC106" s="43"/>
       <c r="CD106" s="47"/>
     </row>
-    <row r="107" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I107" s="42"/>
       <c r="J107" s="43"/>
       <c r="K107" s="43"/>
@@ -10688,7 +10898,7 @@
       <c r="CC107" s="43"/>
       <c r="CD107" s="47"/>
     </row>
-    <row r="108" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I108" s="42"/>
       <c r="J108" s="43"/>
       <c r="K108" s="43"/>
@@ -10764,7 +10974,7 @@
       <c r="CC108" s="43"/>
       <c r="CD108" s="47"/>
     </row>
-    <row r="109" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I109" s="42"/>
       <c r="J109" s="43"/>
       <c r="K109" s="43"/>
@@ -10840,7 +11050,7 @@
       <c r="CC109" s="43"/>
       <c r="CD109" s="47"/>
     </row>
-    <row r="110" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I110" s="42"/>
       <c r="J110" s="43"/>
       <c r="K110" s="43"/>
@@ -10916,7 +11126,7 @@
       <c r="CC110" s="43"/>
       <c r="CD110" s="47"/>
     </row>
-    <row r="111" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I111" s="42"/>
       <c r="J111" s="43"/>
       <c r="K111" s="43"/>
@@ -10992,7 +11202,7 @@
       <c r="CC111" s="43"/>
       <c r="CD111" s="47"/>
     </row>
-    <row r="112" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I112" s="44"/>
       <c r="J112" s="45"/>
       <c r="K112" s="45"/>
@@ -11068,8 +11278,8 @@
       <c r="CC112" s="45"/>
       <c r="CD112" s="48"/>
     </row>
-    <row r="115" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="116" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="116" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I116" s="36" t="s">
         <v>16</v>
       </c>
@@ -11147,7 +11357,7 @@
       <c r="CC116" s="37"/>
       <c r="CD116" s="38"/>
     </row>
-    <row r="117" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I117" s="39"/>
       <c r="J117" s="40"/>
       <c r="K117" s="40"/>
@@ -11223,7 +11433,7 @@
       <c r="CC117" s="40"/>
       <c r="CD117" s="41"/>
     </row>
-    <row r="118" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I118" s="39"/>
       <c r="J118" s="40"/>
       <c r="K118" s="40"/>
@@ -11299,7 +11509,7 @@
       <c r="CC118" s="40"/>
       <c r="CD118" s="41"/>
     </row>
-    <row r="119" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I119" s="42" t="s">
         <v>13</v>
       </c>
@@ -11379,7 +11589,7 @@
       <c r="CC119" s="43"/>
       <c r="CD119" s="47"/>
     </row>
-    <row r="120" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I120" s="42"/>
       <c r="J120" s="43"/>
       <c r="K120" s="43"/>
@@ -11455,7 +11665,7 @@
       <c r="CC120" s="43"/>
       <c r="CD120" s="47"/>
     </row>
-    <row r="121" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I121" s="42"/>
       <c r="J121" s="43"/>
       <c r="K121" s="43"/>
@@ -11531,7 +11741,7 @@
       <c r="CC121" s="43"/>
       <c r="CD121" s="47"/>
     </row>
-    <row r="122" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I122" s="42"/>
       <c r="J122" s="43"/>
       <c r="K122" s="43"/>
@@ -11607,7 +11817,7 @@
       <c r="CC122" s="43"/>
       <c r="CD122" s="47"/>
     </row>
-    <row r="123" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I123" s="42"/>
       <c r="J123" s="43"/>
       <c r="K123" s="43"/>
@@ -11683,7 +11893,7 @@
       <c r="CC123" s="43"/>
       <c r="CD123" s="47"/>
     </row>
-    <row r="124" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I124" s="42"/>
       <c r="J124" s="43"/>
       <c r="K124" s="43"/>
@@ -11759,7 +11969,7 @@
       <c r="CC124" s="43"/>
       <c r="CD124" s="47"/>
     </row>
-    <row r="125" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I125" s="42"/>
       <c r="J125" s="43"/>
       <c r="K125" s="43"/>
@@ -11835,7 +12045,7 @@
       <c r="CC125" s="43"/>
       <c r="CD125" s="47"/>
     </row>
-    <row r="126" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I126" s="42"/>
       <c r="J126" s="43"/>
       <c r="K126" s="43"/>
@@ -11911,7 +12121,7 @@
       <c r="CC126" s="43"/>
       <c r="CD126" s="47"/>
     </row>
-    <row r="127" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I127" s="42"/>
       <c r="J127" s="43"/>
       <c r="K127" s="43"/>
@@ -11987,7 +12197,7 @@
       <c r="CC127" s="43"/>
       <c r="CD127" s="47"/>
     </row>
-    <row r="128" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I128" s="42"/>
       <c r="J128" s="43"/>
       <c r="K128" s="43"/>
@@ -12063,7 +12273,7 @@
       <c r="CC128" s="43"/>
       <c r="CD128" s="47"/>
     </row>
-    <row r="129" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I129" s="42"/>
       <c r="J129" s="43"/>
       <c r="K129" s="43"/>
@@ -12139,7 +12349,7 @@
       <c r="CC129" s="43"/>
       <c r="CD129" s="47"/>
     </row>
-    <row r="130" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I130" s="42"/>
       <c r="J130" s="43"/>
       <c r="K130" s="43"/>
@@ -12215,7 +12425,7 @@
       <c r="CC130" s="43"/>
       <c r="CD130" s="47"/>
     </row>
-    <row r="131" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I131" s="42"/>
       <c r="J131" s="43"/>
       <c r="K131" s="43"/>
@@ -12291,7 +12501,7 @@
       <c r="CC131" s="43"/>
       <c r="CD131" s="47"/>
     </row>
-    <row r="132" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I132" s="42"/>
       <c r="J132" s="43"/>
       <c r="K132" s="43"/>
@@ -12367,7 +12577,7 @@
       <c r="CC132" s="43"/>
       <c r="CD132" s="47"/>
     </row>
-    <row r="133" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="133" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I133" s="44"/>
       <c r="J133" s="45"/>
       <c r="K133" s="45"/>
